--- a/同步-zg_企业职工退休及灵活就业.xlsx
+++ b/同步-zg_企业职工退休及灵活就业.xlsx
@@ -228,9 +228,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -249,6 +249,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -258,14 +266,106 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,115 +379,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,19 +402,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +552,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,151 +576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,6 +600,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,17 +635,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -655,6 +655,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -670,21 +685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,156 +698,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1180,7 +1177,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1476,13 +1473,13 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1512,13 +1509,13 @@
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:7">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1603,13 +1600,13 @@
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:7">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -1617,13 +1614,13 @@
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:7">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -1664,13 +1661,13 @@
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:7">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>66</v>
       </c>
       <c r="G44" s="1" t="s">
